--- a/charts_gfeed/BHEL_close.xlsx
+++ b/charts_gfeed/BHEL_close.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="269">
   <si>
     <t>Exchange : NSE ||  Scrip : BHEL</t>
   </si>
   <si>
-    <t>Type : close || Date : 2019-08-28 14:27:49</t>
-  </si>
-  <si>
-    <t>Box : 1 || Close : 52.7</t>
+    <t>Type : close || Date : 2019-09-04 14:58:26</t>
+  </si>
+  <si>
+    <t>Box : 1 || Close : 49.35</t>
   </si>
   <si>
     <t>Reversal : 3</t>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>2019-08-27 18:00:00</t>
+  </si>
+  <si>
+    <t>2019-09-03 18:00:00</t>
   </si>
 </sst>
 </file>
@@ -1209,16 +1212,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EC151"/>
+  <dimension ref="A1:ED151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="2" max="134" width="2.140625" customWidth="1"/>
+    <col min="2" max="135" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" ht="12" customHeight="1">
+    <row r="1" spans="1:134" ht="12" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1354,8 +1357,9 @@
       <c r="EA1" s="2"/>
       <c r="EB1" s="2"/>
       <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
     </row>
-    <row r="2" spans="1:133" ht="12" customHeight="1">
+    <row r="2" spans="1:134" ht="12" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1489,8 +1493,9 @@
       <c r="EA2" s="2"/>
       <c r="EB2" s="2"/>
       <c r="EC2" s="2"/>
+      <c r="ED2" s="2"/>
     </row>
-    <row r="3" spans="1:133" ht="12" customHeight="1">
+    <row r="3" spans="1:134" ht="12" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,8 +1631,9 @@
       <c r="EA3" s="2"/>
       <c r="EB3" s="2"/>
       <c r="EC3" s="2"/>
+      <c r="ED3" s="2"/>
     </row>
-    <row r="4" spans="1:133" ht="12" customHeight="1">
+    <row r="4" spans="1:134" ht="12" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1761,8 +1767,9 @@
       <c r="EA4" s="2"/>
       <c r="EB4" s="2"/>
       <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
     </row>
-    <row r="5" spans="1:133" ht="12" customHeight="1">
+    <row r="5" spans="1:134" ht="12" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1898,8 +1905,9 @@
       <c r="EA5" s="2"/>
       <c r="EB5" s="2"/>
       <c r="EC5" s="2"/>
+      <c r="ED5" s="2"/>
     </row>
-    <row r="6" spans="1:133" ht="12" customHeight="1">
+    <row r="6" spans="1:134" ht="12" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2033,8 +2041,9 @@
       <c r="EA6" s="2"/>
       <c r="EB6" s="2"/>
       <c r="EC6" s="2"/>
+      <c r="ED6" s="2"/>
     </row>
-    <row r="7" spans="1:133" ht="12" customHeight="1">
+    <row r="7" spans="1:134" ht="12" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2179,9 @@
       <c r="EA7" s="2"/>
       <c r="EB7" s="2"/>
       <c r="EC7" s="2"/>
+      <c r="ED7" s="2"/>
     </row>
-    <row r="8" spans="1:133" ht="12" customHeight="1">
+    <row r="8" spans="1:134" ht="12" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2305,8 +2315,9 @@
       <c r="EA8" s="2"/>
       <c r="EB8" s="2"/>
       <c r="EC8" s="2"/>
+      <c r="ED8" s="2"/>
     </row>
-    <row r="9" spans="1:133" ht="12" customHeight="1">
+    <row r="9" spans="1:134" ht="12" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2440,8 +2451,9 @@
       <c r="EA9" s="2"/>
       <c r="EB9" s="2"/>
       <c r="EC9" s="2"/>
+      <c r="ED9" s="2"/>
     </row>
-    <row r="10" spans="1:133" ht="12" customHeight="1">
+    <row r="10" spans="1:134" ht="12" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2575,8 +2587,9 @@
       <c r="EA10" s="2"/>
       <c r="EB10" s="2"/>
       <c r="EC10" s="2"/>
+      <c r="ED10" s="2"/>
     </row>
-    <row r="11" spans="1:133" ht="12" customHeight="1">
+    <row r="11" spans="1:134" ht="12" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2712,8 +2725,9 @@
       <c r="EA11" s="2"/>
       <c r="EB11" s="2"/>
       <c r="EC11" s="2"/>
+      <c r="ED11" s="2"/>
     </row>
-    <row r="12" spans="1:133" ht="12" customHeight="1">
+    <row r="12" spans="1:134" ht="12" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -2849,8 +2863,9 @@
       <c r="EA12" s="2"/>
       <c r="EB12" s="2"/>
       <c r="EC12" s="2"/>
+      <c r="ED12" s="2"/>
     </row>
-    <row r="13" spans="1:133" ht="12" customHeight="1">
+    <row r="13" spans="1:134" ht="12" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -2986,8 +3001,9 @@
       <c r="EA13" s="2"/>
       <c r="EB13" s="2"/>
       <c r="EC13" s="2"/>
+      <c r="ED13" s="2"/>
     </row>
-    <row r="14" spans="1:133" ht="12" customHeight="1">
+    <row r="14" spans="1:134" ht="12" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -3125,8 +3141,9 @@
       <c r="EA14" s="2"/>
       <c r="EB14" s="2"/>
       <c r="EC14" s="2"/>
+      <c r="ED14" s="2"/>
     </row>
-    <row r="15" spans="1:133" ht="12" customHeight="1">
+    <row r="15" spans="1:134" ht="12" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -3266,8 +3283,9 @@
       <c r="EA15" s="2"/>
       <c r="EB15" s="2"/>
       <c r="EC15" s="2"/>
+      <c r="ED15" s="2"/>
     </row>
-    <row r="16" spans="1:133" ht="12" customHeight="1">
+    <row r="16" spans="1:134" ht="12" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -3411,8 +3429,9 @@
       <c r="EA16" s="2"/>
       <c r="EB16" s="2"/>
       <c r="EC16" s="2"/>
+      <c r="ED16" s="2"/>
     </row>
-    <row r="17" spans="1:133" ht="12" customHeight="1">
+    <row r="17" spans="1:134" ht="12" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -3560,8 +3579,9 @@
       <c r="EA17" s="2"/>
       <c r="EB17" s="2"/>
       <c r="EC17" s="2"/>
+      <c r="ED17" s="2"/>
     </row>
-    <row r="18" spans="1:133" ht="12" customHeight="1">
+    <row r="18" spans="1:134" ht="12" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3709,8 +3729,9 @@
       <c r="EA18" s="2"/>
       <c r="EB18" s="2"/>
       <c r="EC18" s="2"/>
+      <c r="ED18" s="2"/>
     </row>
-    <row r="19" spans="1:133" ht="12" customHeight="1">
+    <row r="19" spans="1:134" ht="12" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -3858,8 +3879,9 @@
       <c r="EA19" s="2"/>
       <c r="EB19" s="2"/>
       <c r="EC19" s="2"/>
+      <c r="ED19" s="2"/>
     </row>
-    <row r="20" spans="1:133" ht="12" customHeight="1">
+    <row r="20" spans="1:134" ht="12" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -4007,8 +4029,9 @@
       <c r="EA20" s="2"/>
       <c r="EB20" s="2"/>
       <c r="EC20" s="2"/>
+      <c r="ED20" s="2"/>
     </row>
-    <row r="21" spans="1:133" ht="12" customHeight="1">
+    <row r="21" spans="1:134" ht="12" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -4154,8 +4177,9 @@
       <c r="EA21" s="2"/>
       <c r="EB21" s="2"/>
       <c r="EC21" s="2"/>
+      <c r="ED21" s="2"/>
     </row>
-    <row r="22" spans="1:133" ht="12" customHeight="1">
+    <row r="22" spans="1:134" ht="12" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -4299,8 +4323,9 @@
       <c r="EA22" s="2"/>
       <c r="EB22" s="2"/>
       <c r="EC22" s="2"/>
+      <c r="ED22" s="2"/>
     </row>
-    <row r="23" spans="1:133" ht="12" customHeight="1">
+    <row r="23" spans="1:134" ht="12" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -4446,8 +4471,9 @@
       <c r="EA23" s="2"/>
       <c r="EB23" s="2"/>
       <c r="EC23" s="2"/>
+      <c r="ED23" s="2"/>
     </row>
-    <row r="24" spans="1:133" ht="12" customHeight="1">
+    <row r="24" spans="1:134" ht="12" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -4593,8 +4619,9 @@
       <c r="EA24" s="2"/>
       <c r="EB24" s="2"/>
       <c r="EC24" s="2"/>
+      <c r="ED24" s="2"/>
     </row>
-    <row r="25" spans="1:133" ht="12" customHeight="1">
+    <row r="25" spans="1:134" ht="12" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -4740,8 +4767,9 @@
       <c r="EA25" s="2"/>
       <c r="EB25" s="2"/>
       <c r="EC25" s="2"/>
+      <c r="ED25" s="2"/>
     </row>
-    <row r="26" spans="1:133" ht="12" customHeight="1">
+    <row r="26" spans="1:134" ht="12" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -4889,8 +4917,9 @@
       <c r="EA26" s="2"/>
       <c r="EB26" s="2"/>
       <c r="EC26" s="2"/>
+      <c r="ED26" s="2"/>
     </row>
-    <row r="27" spans="1:133" ht="12" customHeight="1">
+    <row r="27" spans="1:134" ht="12" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -5038,8 +5067,9 @@
       <c r="EA27" s="2"/>
       <c r="EB27" s="2"/>
       <c r="EC27" s="2"/>
+      <c r="ED27" s="2"/>
     </row>
-    <row r="28" spans="1:133" ht="12" customHeight="1">
+    <row r="28" spans="1:134" ht="12" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -5185,8 +5215,9 @@
       <c r="EA28" s="2"/>
       <c r="EB28" s="2"/>
       <c r="EC28" s="2"/>
+      <c r="ED28" s="2"/>
     </row>
-    <row r="29" spans="1:133" ht="12" customHeight="1">
+    <row r="29" spans="1:134" ht="12" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -5330,8 +5361,9 @@
       <c r="EA29" s="2"/>
       <c r="EB29" s="2"/>
       <c r="EC29" s="2"/>
+      <c r="ED29" s="2"/>
     </row>
-    <row r="30" spans="1:133" ht="12" customHeight="1">
+    <row r="30" spans="1:134" ht="12" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -5475,8 +5507,9 @@
       <c r="EA30" s="2"/>
       <c r="EB30" s="2"/>
       <c r="EC30" s="2"/>
+      <c r="ED30" s="2"/>
     </row>
-    <row r="31" spans="1:133" ht="12" customHeight="1">
+    <row r="31" spans="1:134" ht="12" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
@@ -5620,8 +5653,9 @@
       <c r="EA31" s="2"/>
       <c r="EB31" s="2"/>
       <c r="EC31" s="2"/>
+      <c r="ED31" s="2"/>
     </row>
-    <row r="32" spans="1:133" ht="12" customHeight="1">
+    <row r="32" spans="1:134" ht="12" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -5765,8 +5799,9 @@
       <c r="EA32" s="2"/>
       <c r="EB32" s="2"/>
       <c r="EC32" s="2"/>
+      <c r="ED32" s="2"/>
     </row>
-    <row r="33" spans="1:133" ht="12" customHeight="1">
+    <row r="33" spans="1:134" ht="12" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -5910,8 +5945,9 @@
       <c r="EA33" s="2"/>
       <c r="EB33" s="2"/>
       <c r="EC33" s="2"/>
+      <c r="ED33" s="2"/>
     </row>
-    <row r="34" spans="1:133" ht="12" customHeight="1">
+    <row r="34" spans="1:134" ht="12" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -6057,8 +6093,9 @@
       <c r="EA34" s="2"/>
       <c r="EB34" s="2"/>
       <c r="EC34" s="2"/>
+      <c r="ED34" s="2"/>
     </row>
-    <row r="35" spans="1:133" ht="12" customHeight="1">
+    <row r="35" spans="1:134" ht="12" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -6208,8 +6245,9 @@
       <c r="EA35" s="2"/>
       <c r="EB35" s="2"/>
       <c r="EC35" s="2"/>
+      <c r="ED35" s="2"/>
     </row>
-    <row r="36" spans="1:133" ht="12" customHeight="1">
+    <row r="36" spans="1:134" ht="12" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -6361,8 +6399,9 @@
       <c r="EA36" s="2"/>
       <c r="EB36" s="2"/>
       <c r="EC36" s="2"/>
+      <c r="ED36" s="2"/>
     </row>
-    <row r="37" spans="1:133" ht="12" customHeight="1">
+    <row r="37" spans="1:134" ht="12" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -6514,8 +6553,9 @@
       <c r="EA37" s="2"/>
       <c r="EB37" s="2"/>
       <c r="EC37" s="2"/>
+      <c r="ED37" s="2"/>
     </row>
-    <row r="38" spans="1:133" ht="12" customHeight="1">
+    <row r="38" spans="1:134" ht="12" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
@@ -6667,8 +6707,9 @@
       <c r="EA38" s="2"/>
       <c r="EB38" s="2"/>
       <c r="EC38" s="2"/>
+      <c r="ED38" s="2"/>
     </row>
-    <row r="39" spans="1:133" ht="12" customHeight="1">
+    <row r="39" spans="1:134" ht="12" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -6820,8 +6861,9 @@
       <c r="EA39" s="2"/>
       <c r="EB39" s="2"/>
       <c r="EC39" s="2"/>
+      <c r="ED39" s="2"/>
     </row>
-    <row r="40" spans="1:133" ht="12" customHeight="1">
+    <row r="40" spans="1:134" ht="12" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -6973,8 +7015,9 @@
       <c r="EA40" s="2"/>
       <c r="EB40" s="2"/>
       <c r="EC40" s="2"/>
+      <c r="ED40" s="2"/>
     </row>
-    <row r="41" spans="1:133" ht="12" customHeight="1">
+    <row r="41" spans="1:134" ht="12" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>34</v>
       </c>
@@ -7126,8 +7169,9 @@
       <c r="EA41" s="2"/>
       <c r="EB41" s="2"/>
       <c r="EC41" s="2"/>
+      <c r="ED41" s="2"/>
     </row>
-    <row r="42" spans="1:133" ht="12" customHeight="1">
+    <row r="42" spans="1:134" ht="12" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
@@ -7277,8 +7321,9 @@
       <c r="EA42" s="2"/>
       <c r="EB42" s="2"/>
       <c r="EC42" s="2"/>
+      <c r="ED42" s="2"/>
     </row>
-    <row r="43" spans="1:133" ht="12" customHeight="1">
+    <row r="43" spans="1:134" ht="12" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -7428,8 +7473,9 @@
       <c r="EA43" s="2"/>
       <c r="EB43" s="2"/>
       <c r="EC43" s="2"/>
+      <c r="ED43" s="2"/>
     </row>
-    <row r="44" spans="1:133" ht="12" customHeight="1">
+    <row r="44" spans="1:134" ht="12" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -7581,8 +7627,9 @@
       <c r="EA44" s="2"/>
       <c r="EB44" s="2"/>
       <c r="EC44" s="2"/>
+      <c r="ED44" s="2"/>
     </row>
-    <row r="45" spans="1:133" ht="12" customHeight="1">
+    <row r="45" spans="1:134" ht="12" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -7734,8 +7781,9 @@
       <c r="EA45" s="2"/>
       <c r="EB45" s="2"/>
       <c r="EC45" s="2"/>
+      <c r="ED45" s="2"/>
     </row>
-    <row r="46" spans="1:133" ht="12" customHeight="1">
+    <row r="46" spans="1:134" ht="12" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -7889,8 +7937,9 @@
       <c r="EA46" s="2"/>
       <c r="EB46" s="2"/>
       <c r="EC46" s="2"/>
+      <c r="ED46" s="2"/>
     </row>
-    <row r="47" spans="1:133" ht="12" customHeight="1">
+    <row r="47" spans="1:134" ht="12" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>40</v>
       </c>
@@ -8046,8 +8095,9 @@
       <c r="EA47" s="2"/>
       <c r="EB47" s="2"/>
       <c r="EC47" s="2"/>
+      <c r="ED47" s="2"/>
     </row>
-    <row r="48" spans="1:133" ht="12" customHeight="1">
+    <row r="48" spans="1:134" ht="12" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -8205,8 +8255,9 @@
       <c r="EA48" s="2"/>
       <c r="EB48" s="2"/>
       <c r="EC48" s="2"/>
+      <c r="ED48" s="2"/>
     </row>
-    <row r="49" spans="1:133" ht="12" customHeight="1">
+    <row r="49" spans="1:134" ht="12" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>42</v>
       </c>
@@ -8368,8 +8419,9 @@
       <c r="EA49" s="2"/>
       <c r="EB49" s="2"/>
       <c r="EC49" s="2"/>
+      <c r="ED49" s="2"/>
     </row>
-    <row r="50" spans="1:133" ht="12" customHeight="1">
+    <row r="50" spans="1:134" ht="12" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
@@ -8537,8 +8589,9 @@
       <c r="EA50" s="2"/>
       <c r="EB50" s="2"/>
       <c r="EC50" s="2"/>
+      <c r="ED50" s="2"/>
     </row>
-    <row r="51" spans="1:133" ht="12" customHeight="1">
+    <row r="51" spans="1:134" ht="12" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -8710,8 +8763,9 @@
       <c r="EA51" s="2"/>
       <c r="EB51" s="2"/>
       <c r="EC51" s="2"/>
+      <c r="ED51" s="2"/>
     </row>
-    <row r="52" spans="1:133" ht="12" customHeight="1">
+    <row r="52" spans="1:134" ht="12" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>45</v>
       </c>
@@ -8885,8 +8939,9 @@
       <c r="EA52" s="2"/>
       <c r="EB52" s="2"/>
       <c r="EC52" s="2"/>
+      <c r="ED52" s="2"/>
     </row>
-    <row r="53" spans="1:133" ht="12" customHeight="1">
+    <row r="53" spans="1:134" ht="12" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -9068,8 +9123,9 @@
       <c r="EA53" s="2"/>
       <c r="EB53" s="2"/>
       <c r="EC53" s="2"/>
+      <c r="ED53" s="2"/>
     </row>
-    <row r="54" spans="1:133" ht="12" customHeight="1">
+    <row r="54" spans="1:134" ht="12" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
@@ -9255,8 +9311,9 @@
       <c r="EA54" s="2"/>
       <c r="EB54" s="2"/>
       <c r="EC54" s="2"/>
+      <c r="ED54" s="2"/>
     </row>
-    <row r="55" spans="1:133" ht="12" customHeight="1">
+    <row r="55" spans="1:134" ht="12" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>48</v>
       </c>
@@ -9438,8 +9495,9 @@
       <c r="EA55" s="2"/>
       <c r="EB55" s="2"/>
       <c r="EC55" s="2"/>
+      <c r="ED55" s="2"/>
     </row>
-    <row r="56" spans="1:133" ht="12" customHeight="1">
+    <row r="56" spans="1:134" ht="12" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>49</v>
       </c>
@@ -9619,8 +9677,9 @@
       <c r="EA56" s="2"/>
       <c r="EB56" s="2"/>
       <c r="EC56" s="2"/>
+      <c r="ED56" s="2"/>
     </row>
-    <row r="57" spans="1:133" ht="12" customHeight="1">
+    <row r="57" spans="1:134" ht="12" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>50</v>
       </c>
@@ -9796,8 +9855,9 @@
       <c r="EA57" s="2"/>
       <c r="EB57" s="2"/>
       <c r="EC57" s="2"/>
+      <c r="ED57" s="2"/>
     </row>
-    <row r="58" spans="1:133" ht="12" customHeight="1">
+    <row r="58" spans="1:134" ht="12" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>51</v>
       </c>
@@ -9967,8 +10027,9 @@
       <c r="EA58" s="2"/>
       <c r="EB58" s="2"/>
       <c r="EC58" s="2"/>
+      <c r="ED58" s="2"/>
     </row>
-    <row r="59" spans="1:133" ht="12" customHeight="1">
+    <row r="59" spans="1:134" ht="12" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -10138,8 +10199,9 @@
       <c r="EA59" s="2"/>
       <c r="EB59" s="2"/>
       <c r="EC59" s="2"/>
+      <c r="ED59" s="2"/>
     </row>
-    <row r="60" spans="1:133" ht="12" customHeight="1">
+    <row r="60" spans="1:134" ht="12" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>53</v>
       </c>
@@ -10307,8 +10369,9 @@
       <c r="EA60" s="2"/>
       <c r="EB60" s="2"/>
       <c r="EC60" s="2"/>
+      <c r="ED60" s="2"/>
     </row>
-    <row r="61" spans="1:133" ht="12" customHeight="1">
+    <row r="61" spans="1:134" ht="12" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>54</v>
       </c>
@@ -10472,8 +10535,9 @@
       <c r="EA61" s="2"/>
       <c r="EB61" s="2"/>
       <c r="EC61" s="2"/>
+      <c r="ED61" s="2"/>
     </row>
-    <row r="62" spans="1:133" ht="12" customHeight="1">
+    <row r="62" spans="1:134" ht="12" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>55</v>
       </c>
@@ -10633,8 +10697,9 @@
       <c r="EA62" s="2"/>
       <c r="EB62" s="2"/>
       <c r="EC62" s="2"/>
+      <c r="ED62" s="2"/>
     </row>
-    <row r="63" spans="1:133" ht="12" customHeight="1">
+    <row r="63" spans="1:134" ht="12" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>56</v>
       </c>
@@ -10792,8 +10857,9 @@
       <c r="EA63" s="2"/>
       <c r="EB63" s="2"/>
       <c r="EC63" s="2"/>
+      <c r="ED63" s="2"/>
     </row>
-    <row r="64" spans="1:133" ht="12" customHeight="1">
+    <row r="64" spans="1:134" ht="12" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
@@ -10955,8 +11021,9 @@
       <c r="EA64" s="2"/>
       <c r="EB64" s="2"/>
       <c r="EC64" s="2"/>
+      <c r="ED64" s="2"/>
     </row>
-    <row r="65" spans="1:133" ht="12" customHeight="1">
+    <row r="65" spans="1:134" ht="12" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>58</v>
       </c>
@@ -11118,8 +11185,9 @@
       <c r="EA65" s="2"/>
       <c r="EB65" s="2"/>
       <c r="EC65" s="2"/>
+      <c r="ED65" s="2"/>
     </row>
-    <row r="66" spans="1:133" ht="12" customHeight="1">
+    <row r="66" spans="1:134" ht="12" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
@@ -11277,8 +11345,9 @@
       <c r="EA66" s="2"/>
       <c r="EB66" s="2"/>
       <c r="EC66" s="2"/>
+      <c r="ED66" s="2"/>
     </row>
-    <row r="67" spans="1:133" ht="12" customHeight="1">
+    <row r="67" spans="1:134" ht="12" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>60</v>
       </c>
@@ -11434,8 +11503,9 @@
       <c r="EA67" s="2"/>
       <c r="EB67" s="2"/>
       <c r="EC67" s="2"/>
+      <c r="ED67" s="2"/>
     </row>
-    <row r="68" spans="1:133" ht="12" customHeight="1">
+    <row r="68" spans="1:134" ht="12" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
@@ -11591,8 +11661,9 @@
       <c r="EA68" s="2"/>
       <c r="EB68" s="2"/>
       <c r="EC68" s="2"/>
+      <c r="ED68" s="2"/>
     </row>
-    <row r="69" spans="1:133" ht="12" customHeight="1">
+    <row r="69" spans="1:134" ht="12" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>62</v>
       </c>
@@ -11742,8 +11813,9 @@
       <c r="EA69" s="2"/>
       <c r="EB69" s="2"/>
       <c r="EC69" s="2"/>
+      <c r="ED69" s="2"/>
     </row>
-    <row r="70" spans="1:133" ht="12" customHeight="1">
+    <row r="70" spans="1:134" ht="12" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>63</v>
       </c>
@@ -11891,8 +11963,9 @@
       <c r="EA70" s="2"/>
       <c r="EB70" s="2"/>
       <c r="EC70" s="2"/>
+      <c r="ED70" s="2"/>
     </row>
-    <row r="71" spans="1:133" ht="12" customHeight="1">
+    <row r="71" spans="1:134" ht="12" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>64</v>
       </c>
@@ -12044,8 +12117,9 @@
       <c r="EA71" s="2"/>
       <c r="EB71" s="2"/>
       <c r="EC71" s="2"/>
+      <c r="ED71" s="2"/>
     </row>
-    <row r="72" spans="1:133" ht="12" customHeight="1">
+    <row r="72" spans="1:134" ht="12" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>65</v>
       </c>
@@ -12197,8 +12271,9 @@
       <c r="EA72" s="2"/>
       <c r="EB72" s="2"/>
       <c r="EC72" s="2"/>
+      <c r="ED72" s="2"/>
     </row>
-    <row r="73" spans="1:133" ht="12" customHeight="1">
+    <row r="73" spans="1:134" ht="12" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
@@ -12348,8 +12423,9 @@
       <c r="EA73" s="2"/>
       <c r="EB73" s="2"/>
       <c r="EC73" s="2"/>
+      <c r="ED73" s="2"/>
     </row>
-    <row r="74" spans="1:133" ht="12" customHeight="1">
+    <row r="74" spans="1:134" ht="12" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>67</v>
       </c>
@@ -12497,8 +12573,9 @@
       <c r="EA74" s="2"/>
       <c r="EB74" s="2"/>
       <c r="EC74" s="2"/>
+      <c r="ED74" s="2"/>
     </row>
-    <row r="75" spans="1:133" ht="12" customHeight="1">
+    <row r="75" spans="1:134" ht="12" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>68</v>
       </c>
@@ -12644,8 +12721,9 @@
       <c r="EA75" s="2"/>
       <c r="EB75" s="2"/>
       <c r="EC75" s="2"/>
+      <c r="ED75" s="2"/>
     </row>
-    <row r="76" spans="1:133" ht="12" customHeight="1">
+    <row r="76" spans="1:134" ht="12" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>69</v>
       </c>
@@ -12785,8 +12863,9 @@
       <c r="EA76" s="2"/>
       <c r="EB76" s="2"/>
       <c r="EC76" s="2"/>
+      <c r="ED76" s="2"/>
     </row>
-    <row r="77" spans="1:133" ht="12" customHeight="1">
+    <row r="77" spans="1:134" ht="12" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>70</v>
       </c>
@@ -12924,8 +13003,9 @@
       <c r="EA77" s="2"/>
       <c r="EB77" s="2"/>
       <c r="EC77" s="2"/>
+      <c r="ED77" s="2"/>
     </row>
-    <row r="78" spans="1:133" ht="12" customHeight="1">
+    <row r="78" spans="1:134" ht="12" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>71</v>
       </c>
@@ -13063,8 +13143,9 @@
       <c r="EA78" s="2"/>
       <c r="EB78" s="2"/>
       <c r="EC78" s="2"/>
+      <c r="ED78" s="2"/>
     </row>
-    <row r="79" spans="1:133" ht="12" customHeight="1">
+    <row r="79" spans="1:134" ht="12" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>72</v>
       </c>
@@ -13202,8 +13283,9 @@
       <c r="EA79" s="2"/>
       <c r="EB79" s="2"/>
       <c r="EC79" s="2"/>
+      <c r="ED79" s="2"/>
     </row>
-    <row r="80" spans="1:133" ht="12" customHeight="1">
+    <row r="80" spans="1:134" ht="12" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>73</v>
       </c>
@@ -13341,8 +13423,9 @@
       <c r="EA80" s="2"/>
       <c r="EB80" s="2"/>
       <c r="EC80" s="2"/>
+      <c r="ED80" s="2"/>
     </row>
-    <row r="81" spans="1:133" ht="12" customHeight="1">
+    <row r="81" spans="1:134" ht="12" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>74</v>
       </c>
@@ -13480,8 +13563,9 @@
       <c r="EA81" s="2"/>
       <c r="EB81" s="2"/>
       <c r="EC81" s="2"/>
+      <c r="ED81" s="2"/>
     </row>
-    <row r="82" spans="1:133" ht="12" customHeight="1">
+    <row r="82" spans="1:134" ht="12" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>75</v>
       </c>
@@ -13619,8 +13703,9 @@
       <c r="EA82" s="2"/>
       <c r="EB82" s="2"/>
       <c r="EC82" s="2"/>
+      <c r="ED82" s="2"/>
     </row>
-    <row r="83" spans="1:133" ht="12" customHeight="1">
+    <row r="83" spans="1:134" ht="12" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
@@ -13758,8 +13843,9 @@
       <c r="EA83" s="2"/>
       <c r="EB83" s="2"/>
       <c r="EC83" s="2"/>
+      <c r="ED83" s="2"/>
     </row>
-    <row r="84" spans="1:133" ht="12" customHeight="1">
+    <row r="84" spans="1:134" ht="12" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>77</v>
       </c>
@@ -13897,8 +13983,9 @@
       <c r="EA84" s="2"/>
       <c r="EB84" s="2"/>
       <c r="EC84" s="2"/>
+      <c r="ED84" s="2"/>
     </row>
-    <row r="85" spans="1:133" ht="12" customHeight="1">
+    <row r="85" spans="1:134" ht="12" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>78</v>
       </c>
@@ -14036,8 +14123,9 @@
       <c r="EA85" s="2"/>
       <c r="EB85" s="2"/>
       <c r="EC85" s="2"/>
+      <c r="ED85" s="2"/>
     </row>
-    <row r="86" spans="1:133" ht="12" customHeight="1">
+    <row r="86" spans="1:134" ht="12" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
@@ -14175,8 +14263,9 @@
       <c r="EA86" s="2"/>
       <c r="EB86" s="2"/>
       <c r="EC86" s="2"/>
+      <c r="ED86" s="2"/>
     </row>
-    <row r="87" spans="1:133" ht="12" customHeight="1">
+    <row r="87" spans="1:134" ht="12" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
@@ -14314,8 +14403,9 @@
       <c r="EA87" s="2"/>
       <c r="EB87" s="2"/>
       <c r="EC87" s="2"/>
+      <c r="ED87" s="2"/>
     </row>
-    <row r="88" spans="1:133" ht="12" customHeight="1">
+    <row r="88" spans="1:134" ht="12" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
@@ -14453,8 +14543,9 @@
       <c r="EA88" s="2"/>
       <c r="EB88" s="2"/>
       <c r="EC88" s="2"/>
+      <c r="ED88" s="2"/>
     </row>
-    <row r="89" spans="1:133" ht="12" customHeight="1">
+    <row r="89" spans="1:134" ht="12" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
@@ -14594,8 +14685,9 @@
       <c r="EA89" s="2"/>
       <c r="EB89" s="2"/>
       <c r="EC89" s="2"/>
+      <c r="ED89" s="2"/>
     </row>
-    <row r="90" spans="1:133" ht="12" customHeight="1">
+    <row r="90" spans="1:134" ht="12" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
@@ -14739,8 +14831,9 @@
       <c r="EA90" s="2"/>
       <c r="EB90" s="2"/>
       <c r="EC90" s="2"/>
+      <c r="ED90" s="2"/>
     </row>
-    <row r="91" spans="1:133" ht="12" customHeight="1">
+    <row r="91" spans="1:134" ht="12" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
@@ -14886,8 +14979,9 @@
       <c r="EA91" s="2"/>
       <c r="EB91" s="2"/>
       <c r="EC91" s="2"/>
+      <c r="ED91" s="2"/>
     </row>
-    <row r="92" spans="1:133" ht="12" customHeight="1">
+    <row r="92" spans="1:134" ht="12" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
@@ -15033,8 +15127,9 @@
       <c r="EA92" s="2"/>
       <c r="EB92" s="2"/>
       <c r="EC92" s="2"/>
+      <c r="ED92" s="2"/>
     </row>
-    <row r="93" spans="1:133" ht="12" customHeight="1">
+    <row r="93" spans="1:134" ht="12" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -15180,8 +15275,9 @@
       <c r="EA93" s="2"/>
       <c r="EB93" s="2"/>
       <c r="EC93" s="2"/>
+      <c r="ED93" s="2"/>
     </row>
-    <row r="94" spans="1:133" ht="12" customHeight="1">
+    <row r="94" spans="1:134" ht="12" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
@@ -15329,8 +15425,9 @@
       <c r="EA94" s="2"/>
       <c r="EB94" s="2"/>
       <c r="EC94" s="2"/>
+      <c r="ED94" s="2"/>
     </row>
-    <row r="95" spans="1:133" ht="12" customHeight="1">
+    <row r="95" spans="1:134" ht="12" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
@@ -15480,8 +15577,9 @@
       <c r="EA95" s="2"/>
       <c r="EB95" s="2"/>
       <c r="EC95" s="2"/>
+      <c r="ED95" s="2"/>
     </row>
-    <row r="96" spans="1:133" ht="12" customHeight="1">
+    <row r="96" spans="1:134" ht="12" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>89</v>
       </c>
@@ -15631,8 +15729,9 @@
       <c r="EA96" s="2"/>
       <c r="EB96" s="2"/>
       <c r="EC96" s="2"/>
+      <c r="ED96" s="2"/>
     </row>
-    <row r="97" spans="1:133" ht="12" customHeight="1">
+    <row r="97" spans="1:134" ht="12" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
@@ -15782,8 +15881,9 @@
       <c r="EA97" s="2"/>
       <c r="EB97" s="2"/>
       <c r="EC97" s="2"/>
+      <c r="ED97" s="2"/>
     </row>
-    <row r="98" spans="1:133" ht="12" customHeight="1">
+    <row r="98" spans="1:134" ht="12" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
@@ -15933,8 +16033,9 @@
       <c r="EA98" s="2"/>
       <c r="EB98" s="2"/>
       <c r="EC98" s="2"/>
+      <c r="ED98" s="2"/>
     </row>
-    <row r="99" spans="1:133" ht="12" customHeight="1">
+    <row r="99" spans="1:134" ht="12" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -16086,8 +16187,9 @@
       <c r="EA99" s="2"/>
       <c r="EB99" s="2"/>
       <c r="EC99" s="2"/>
+      <c r="ED99" s="2"/>
     </row>
-    <row r="100" spans="1:133" ht="12" customHeight="1">
+    <row r="100" spans="1:134" ht="12" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -16241,8 +16343,9 @@
       <c r="EA100" s="2"/>
       <c r="EB100" s="2"/>
       <c r="EC100" s="2"/>
+      <c r="ED100" s="2"/>
     </row>
-    <row r="101" spans="1:133" ht="12" customHeight="1">
+    <row r="101" spans="1:134" ht="12" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -16396,8 +16499,9 @@
       <c r="EA101" s="2"/>
       <c r="EB101" s="2"/>
       <c r="EC101" s="2"/>
+      <c r="ED101" s="2"/>
     </row>
-    <row r="102" spans="1:133" ht="12" customHeight="1">
+    <row r="102" spans="1:134" ht="12" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -16551,8 +16655,9 @@
       <c r="EA102" s="2"/>
       <c r="EB102" s="2"/>
       <c r="EC102" s="2"/>
+      <c r="ED102" s="2"/>
     </row>
-    <row r="103" spans="1:133" ht="12" customHeight="1">
+    <row r="103" spans="1:134" ht="12" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -16708,8 +16813,9 @@
       <c r="EA103" s="2"/>
       <c r="EB103" s="2"/>
       <c r="EC103" s="2"/>
+      <c r="ED103" s="2"/>
     </row>
-    <row r="104" spans="1:133" ht="12" customHeight="1">
+    <row r="104" spans="1:134" ht="12" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -16863,8 +16969,9 @@
       <c r="EA104" s="2"/>
       <c r="EB104" s="2"/>
       <c r="EC104" s="2"/>
+      <c r="ED104" s="2"/>
     </row>
-    <row r="105" spans="1:133" ht="12" customHeight="1">
+    <row r="105" spans="1:134" ht="12" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
@@ -17014,8 +17121,9 @@
       <c r="EA105" s="2"/>
       <c r="EB105" s="2"/>
       <c r="EC105" s="2"/>
+      <c r="ED105" s="2"/>
     </row>
-    <row r="106" spans="1:133" ht="12" customHeight="1">
+    <row r="106" spans="1:134" ht="12" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -17163,8 +17271,9 @@
       <c r="EA106" s="2"/>
       <c r="EB106" s="2"/>
       <c r="EC106" s="2"/>
+      <c r="ED106" s="2"/>
     </row>
-    <row r="107" spans="1:133" ht="12" customHeight="1">
+    <row r="107" spans="1:134" ht="12" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
@@ -17312,8 +17421,9 @@
       <c r="EA107" s="2"/>
       <c r="EB107" s="2"/>
       <c r="EC107" s="2"/>
+      <c r="ED107" s="2"/>
     </row>
-    <row r="108" spans="1:133" ht="12" customHeight="1">
+    <row r="108" spans="1:134" ht="12" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
@@ -17463,8 +17573,9 @@
       <c r="EA108" s="2"/>
       <c r="EB108" s="2"/>
       <c r="EC108" s="2"/>
+      <c r="ED108" s="2"/>
     </row>
-    <row r="109" spans="1:133" ht="12" customHeight="1">
+    <row r="109" spans="1:134" ht="12" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
@@ -17614,8 +17725,9 @@
       <c r="EA109" s="2"/>
       <c r="EB109" s="2"/>
       <c r="EC109" s="2"/>
+      <c r="ED109" s="2"/>
     </row>
-    <row r="110" spans="1:133" ht="12" customHeight="1">
+    <row r="110" spans="1:134" ht="12" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
@@ -17765,8 +17877,9 @@
       <c r="EA110" s="2"/>
       <c r="EB110" s="2"/>
       <c r="EC110" s="2"/>
+      <c r="ED110" s="2"/>
     </row>
-    <row r="111" spans="1:133" ht="12" customHeight="1">
+    <row r="111" spans="1:134" ht="12" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>104</v>
       </c>
@@ -17914,8 +18027,9 @@
       <c r="EA111" s="2"/>
       <c r="EB111" s="2"/>
       <c r="EC111" s="2"/>
+      <c r="ED111" s="2"/>
     </row>
-    <row r="112" spans="1:133" ht="12" customHeight="1">
+    <row r="112" spans="1:134" ht="12" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
@@ -18063,8 +18177,9 @@
       <c r="EA112" s="2"/>
       <c r="EB112" s="2"/>
       <c r="EC112" s="2"/>
+      <c r="ED112" s="2"/>
     </row>
-    <row r="113" spans="1:133" ht="12" customHeight="1">
+    <row r="113" spans="1:134" ht="12" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>106</v>
       </c>
@@ -18216,8 +18331,9 @@
       <c r="EA113" s="2"/>
       <c r="EB113" s="2"/>
       <c r="EC113" s="2"/>
+      <c r="ED113" s="2"/>
     </row>
-    <row r="114" spans="1:133" ht="12" customHeight="1">
+    <row r="114" spans="1:134" ht="12" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>107</v>
       </c>
@@ -18371,8 +18487,9 @@
       <c r="EA114" s="2"/>
       <c r="EB114" s="2"/>
       <c r="EC114" s="2"/>
+      <c r="ED114" s="2"/>
     </row>
-    <row r="115" spans="1:133" ht="12" customHeight="1">
+    <row r="115" spans="1:134" ht="12" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>108</v>
       </c>
@@ -18526,8 +18643,9 @@
       <c r="EA115" s="2"/>
       <c r="EB115" s="2"/>
       <c r="EC115" s="2"/>
+      <c r="ED115" s="2"/>
     </row>
-    <row r="116" spans="1:133" ht="12" customHeight="1">
+    <row r="116" spans="1:134" ht="12" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>109</v>
       </c>
@@ -18681,8 +18799,9 @@
       <c r="EA116" s="2"/>
       <c r="EB116" s="2"/>
       <c r="EC116" s="2"/>
+      <c r="ED116" s="2"/>
     </row>
-    <row r="117" spans="1:133" ht="12" customHeight="1">
+    <row r="117" spans="1:134" ht="12" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>110</v>
       </c>
@@ -18838,8 +18957,9 @@
       <c r="EA117" s="2"/>
       <c r="EB117" s="2"/>
       <c r="EC117" s="2"/>
+      <c r="ED117" s="2"/>
     </row>
-    <row r="118" spans="1:133" ht="12" customHeight="1">
+    <row r="118" spans="1:134" ht="12" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>111</v>
       </c>
@@ -19001,8 +19121,9 @@
       <c r="EA118" s="2"/>
       <c r="EB118" s="2"/>
       <c r="EC118" s="2"/>
+      <c r="ED118" s="2"/>
     </row>
-    <row r="119" spans="1:133" ht="12" customHeight="1">
+    <row r="119" spans="1:134" ht="12" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>112</v>
       </c>
@@ -19166,8 +19287,9 @@
       <c r="EA119" s="2"/>
       <c r="EB119" s="2"/>
       <c r="EC119" s="2"/>
+      <c r="ED119" s="2"/>
     </row>
-    <row r="120" spans="1:133" ht="12" customHeight="1">
+    <row r="120" spans="1:134" ht="12" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>113</v>
       </c>
@@ -19333,8 +19455,9 @@
       <c r="EA120" s="2"/>
       <c r="EB120" s="2"/>
       <c r="EC120" s="2"/>
+      <c r="ED120" s="2"/>
     </row>
-    <row r="121" spans="1:133" ht="12" customHeight="1">
+    <row r="121" spans="1:134" ht="12" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>114</v>
       </c>
@@ -19508,8 +19631,9 @@
       <c r="EA121" s="2"/>
       <c r="EB121" s="2"/>
       <c r="EC121" s="2"/>
+      <c r="ED121" s="2"/>
     </row>
-    <row r="122" spans="1:133" ht="12" customHeight="1">
+    <row r="122" spans="1:134" ht="12" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>115</v>
       </c>
@@ -19689,8 +19813,9 @@
       <c r="EA122" s="2"/>
       <c r="EB122" s="2"/>
       <c r="EC122" s="2"/>
+      <c r="ED122" s="2"/>
     </row>
-    <row r="123" spans="1:133" ht="12" customHeight="1">
+    <row r="123" spans="1:134" ht="12" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>116</v>
       </c>
@@ -19872,8 +19997,9 @@
       <c r="EA123" s="2"/>
       <c r="EB123" s="2"/>
       <c r="EC123" s="2"/>
+      <c r="ED123" s="2"/>
     </row>
-    <row r="124" spans="1:133" ht="12" customHeight="1">
+    <row r="124" spans="1:134" ht="12" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>117</v>
       </c>
@@ -20055,8 +20181,9 @@
       <c r="EA124" s="2"/>
       <c r="EB124" s="2"/>
       <c r="EC124" s="2"/>
+      <c r="ED124" s="2"/>
     </row>
-    <row r="125" spans="1:133" ht="12" customHeight="1">
+    <row r="125" spans="1:134" ht="12" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>118</v>
       </c>
@@ -20236,8 +20363,9 @@
       <c r="EA125" s="2"/>
       <c r="EB125" s="2"/>
       <c r="EC125" s="2"/>
+      <c r="ED125" s="2"/>
     </row>
-    <row r="126" spans="1:133" ht="12" customHeight="1">
+    <row r="126" spans="1:134" ht="12" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>119</v>
       </c>
@@ -20407,8 +20535,9 @@
       <c r="EA126" s="2"/>
       <c r="EB126" s="2"/>
       <c r="EC126" s="2"/>
+      <c r="ED126" s="2"/>
     </row>
-    <row r="127" spans="1:133" ht="12" customHeight="1">
+    <row r="127" spans="1:134" ht="12" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>120</v>
       </c>
@@ -20568,8 +20697,9 @@
       <c r="EA127" s="2"/>
       <c r="EB127" s="2"/>
       <c r="EC127" s="2"/>
+      <c r="ED127" s="2"/>
     </row>
-    <row r="128" spans="1:133" ht="12" customHeight="1">
+    <row r="128" spans="1:134" ht="12" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>121</v>
       </c>
@@ -20725,8 +20855,9 @@
       <c r="EA128" s="2"/>
       <c r="EB128" s="2"/>
       <c r="EC128" s="2"/>
+      <c r="ED128" s="2"/>
     </row>
-    <row r="129" spans="1:133" ht="12" customHeight="1">
+    <row r="129" spans="1:134" ht="12" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>122</v>
       </c>
@@ -20878,8 +21009,9 @@
       <c r="EA129" s="2"/>
       <c r="EB129" s="2"/>
       <c r="EC129" s="2"/>
+      <c r="ED129" s="2"/>
     </row>
-    <row r="130" spans="1:133" ht="12" customHeight="1">
+    <row r="130" spans="1:134" ht="12" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>123</v>
       </c>
@@ -21031,8 +21163,9 @@
       <c r="EA130" s="2"/>
       <c r="EB130" s="2"/>
       <c r="EC130" s="2"/>
+      <c r="ED130" s="2"/>
     </row>
-    <row r="131" spans="1:133" ht="12" customHeight="1">
+    <row r="131" spans="1:134" ht="12" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>124</v>
       </c>
@@ -21184,8 +21317,9 @@
       <c r="EA131" s="2"/>
       <c r="EB131" s="2"/>
       <c r="EC131" s="2"/>
+      <c r="ED131" s="2"/>
     </row>
-    <row r="132" spans="1:133" ht="12" customHeight="1">
+    <row r="132" spans="1:134" ht="12" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>125</v>
       </c>
@@ -21335,8 +21469,9 @@
       <c r="EA132" s="2"/>
       <c r="EB132" s="2"/>
       <c r="EC132" s="2"/>
+      <c r="ED132" s="2"/>
     </row>
-    <row r="133" spans="1:133" ht="12" customHeight="1">
+    <row r="133" spans="1:134" ht="12" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>126</v>
       </c>
@@ -21484,8 +21619,9 @@
       <c r="EA133" s="2"/>
       <c r="EB133" s="2"/>
       <c r="EC133" s="2"/>
+      <c r="ED133" s="2"/>
     </row>
-    <row r="134" spans="1:133" ht="12" customHeight="1">
+    <row r="134" spans="1:134" ht="12" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>127</v>
       </c>
@@ -21629,8 +21765,9 @@
       <c r="EA134" s="2"/>
       <c r="EB134" s="2"/>
       <c r="EC134" s="2"/>
+      <c r="ED134" s="2"/>
     </row>
-    <row r="135" spans="1:133" ht="12" customHeight="1">
+    <row r="135" spans="1:134" ht="12" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>128</v>
       </c>
@@ -21770,8 +21907,9 @@
       <c r="EA135" s="2"/>
       <c r="EB135" s="2"/>
       <c r="EC135" s="2"/>
+      <c r="ED135" s="2"/>
     </row>
-    <row r="136" spans="1:133" ht="12" customHeight="1">
+    <row r="136" spans="1:134" ht="12" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>129</v>
       </c>
@@ -21909,8 +22047,9 @@
       <c r="EA136" s="2"/>
       <c r="EB136" s="2"/>
       <c r="EC136" s="2"/>
+      <c r="ED136" s="2"/>
     </row>
-    <row r="137" spans="1:133" ht="12" customHeight="1">
+    <row r="137" spans="1:134" ht="12" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>130</v>
       </c>
@@ -22048,8 +22187,9 @@
       <c r="EA137" s="2"/>
       <c r="EB137" s="2"/>
       <c r="EC137" s="2"/>
+      <c r="ED137" s="2"/>
     </row>
-    <row r="138" spans="1:133" ht="12" customHeight="1">
+    <row r="138" spans="1:134" ht="12" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>131</v>
       </c>
@@ -22187,8 +22327,9 @@
       <c r="EA138" s="2"/>
       <c r="EB138" s="2"/>
       <c r="EC138" s="2"/>
+      <c r="ED138" s="2"/>
     </row>
-    <row r="139" spans="1:133" ht="12" customHeight="1">
+    <row r="139" spans="1:134" ht="12" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>132</v>
       </c>
@@ -22326,8 +22467,9 @@
       <c r="EA139" s="2"/>
       <c r="EB139" s="2"/>
       <c r="EC139" s="2"/>
+      <c r="ED139" s="2"/>
     </row>
-    <row r="140" spans="1:133" ht="12" customHeight="1">
+    <row r="140" spans="1:134" ht="12" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>133</v>
       </c>
@@ -22465,8 +22607,9 @@
       <c r="EA140" s="2"/>
       <c r="EB140" s="2"/>
       <c r="EC140" s="2"/>
+      <c r="ED140" s="2"/>
     </row>
-    <row r="141" spans="1:133" ht="12" customHeight="1">
+    <row r="141" spans="1:134" ht="12" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -22606,8 +22749,9 @@
       <c r="EA141" s="2"/>
       <c r="EB141" s="2"/>
       <c r="EC141" s="2"/>
+      <c r="ED141" s="2"/>
     </row>
-    <row r="142" spans="1:133" ht="12" customHeight="1">
+    <row r="142" spans="1:134" ht="12" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>135</v>
       </c>
@@ -22738,7 +22882,9 @@
       <c r="DT142" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="DU142" s="2"/>
+      <c r="DU142" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="DV142" s="2"/>
       <c r="DW142" s="2"/>
       <c r="DX142" s="2"/>
@@ -22747,8 +22893,9 @@
       <c r="EA142" s="2"/>
       <c r="EB142" s="2"/>
       <c r="EC142" s="2"/>
+      <c r="ED142" s="2"/>
     </row>
-    <row r="143" spans="1:133" ht="12" customHeight="1">
+    <row r="143" spans="1:134" ht="12" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>136</v>
       </c>
@@ -22879,7 +23026,9 @@
       <c r="DT143" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="DU143" s="2"/>
+      <c r="DU143" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="DV143" s="2"/>
       <c r="DW143" s="2"/>
       <c r="DX143" s="2"/>
@@ -22888,8 +23037,9 @@
       <c r="EA143" s="2"/>
       <c r="EB143" s="2"/>
       <c r="EC143" s="2"/>
+      <c r="ED143" s="2"/>
     </row>
-    <row r="144" spans="1:133" ht="12" customHeight="1">
+    <row r="144" spans="1:134" ht="12" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>137</v>
       </c>
@@ -23020,7 +23170,9 @@
       <c r="DT144" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="DU144" s="2"/>
+      <c r="DU144" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="DV144" s="2"/>
       <c r="DW144" s="2"/>
       <c r="DX144" s="2"/>
@@ -23029,8 +23181,9 @@
       <c r="EA144" s="2"/>
       <c r="EB144" s="2"/>
       <c r="EC144" s="2"/>
+      <c r="ED144" s="2"/>
     </row>
-    <row r="145" spans="1:133" ht="12" customHeight="1">
+    <row r="145" spans="1:134" ht="12" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>138</v>
       </c>
@@ -23170,8 +23323,9 @@
       <c r="EA145" s="2"/>
       <c r="EB145" s="2"/>
       <c r="EC145" s="2"/>
+      <c r="ED145" s="2"/>
     </row>
-    <row r="146" spans="1:133" ht="12" customHeight="1">
+    <row r="146" spans="1:134" ht="12" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
@@ -23309,8 +23463,9 @@
       <c r="EA146" s="2"/>
       <c r="EB146" s="2"/>
       <c r="EC146" s="2"/>
+      <c r="ED146" s="2"/>
     </row>
-    <row r="147" spans="1:133" ht="12" customHeight="1">
+    <row r="147" spans="1:134" ht="12" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>140</v>
       </c>
@@ -23446,8 +23601,9 @@
       <c r="EA147" s="2"/>
       <c r="EB147" s="2"/>
       <c r="EC147" s="2"/>
+      <c r="ED147" s="2"/>
     </row>
-    <row r="148" spans="1:133" ht="12" customHeight="1">
+    <row r="148" spans="1:134" ht="12" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>141</v>
       </c>
@@ -23583,8 +23739,9 @@
       <c r="EA148" s="2"/>
       <c r="EB148" s="2"/>
       <c r="EC148" s="2"/>
+      <c r="ED148" s="2"/>
     </row>
-    <row r="149" spans="1:133" ht="12" customHeight="1">
+    <row r="149" spans="1:134" ht="12" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>142</v>
       </c>
@@ -23720,8 +23877,9 @@
       <c r="EA149" s="2"/>
       <c r="EB149" s="2"/>
       <c r="EC149" s="2"/>
+      <c r="ED149" s="2"/>
     </row>
-    <row r="151" spans="1:133" ht="100" customHeight="1">
+    <row r="151" spans="1:134" ht="100" customHeight="1">
       <c r="B151" s="5" t="s">
         <v>144</v>
       </c>
@@ -24091,7 +24249,9 @@
       <c r="DT151" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="DU151" s="5"/>
+      <c r="DU151" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="DV151" s="5"/>
       <c r="DW151" s="5"/>
       <c r="DX151" s="5"/>
@@ -24100,6 +24260,7 @@
       <c r="EA151" s="5"/>
       <c r="EB151" s="5"/>
       <c r="EC151" s="5"/>
+      <c r="ED151" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
